--- a/МножественнаяРегрЗадачи.xlsx
+++ b/МножественнаяРегрЗадачи.xlsx
@@ -1,27 +1,558 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\DESC\work\занятия\МетодыОбрЭксперИнформ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Задание 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Задание 1 графики" sheetId="3" r:id="rId3"/>
+    <sheet name="Задание 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Боровков Дмитрий Евгеньевич</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Множественный коэффициент корелляции sqrt(R^2)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Коэффициент детерминации (R^2) отношение разности сумм квадратов отклонений со средним у и с у, c y c y, вычисленным по аппроксимирующей линии к сумме квадратов отклонений со средним у и с у</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Объективно определяет достоверность связи, так как, в отличие от обыного коэффициента детерминации (R-квадрат), он не зависит от числа опытов (n) и числа факторов (k)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+ст. ошиб. Единичного наблюдения
+sqrt(SSрег/(n(n-2))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+n</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Сумма квадратов отклонений</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Оценка дисперсий, приходящихся на одну степень свободы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Значение критерия Фишера</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+количество наборов факторов Х
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+сумма квадратов отклонений (квдрт рзнсти  y, вычисленным по аппроксимирующей линии и среднего по у). Проще говоря: сумма квадратов отклонений теоретических данных от среднего.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+SS/df (факторная дисперсия)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+MS(регр)/MS(отс)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Если число &gt;1-p, то принимается гипотеза R-квадрат=0 (нет лин. зав-ти)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+n-k-1 (16-3-1)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+сумма квадратов отклонений (квдрт рзнсти реального у и у аппроксимирующей линии).
+Проще говоря, это сумма квадратов отклонений эмпирических данных от теоретических</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+SS/df (остаточная дисперсия)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+сумма квадратов разности реального у со средним по у.
+Проще говоря, это сумма квадратов отклонений эмпирических данных от среднего</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+=Коэффициенты/Стандартная ошибка.
+Это вычисленное по выборке значение критерия Стьюдента для проверки значимости коэффициентов (Н.Г.- оценка коэффициента = 0.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Если число &gt;1-р, то соотв. переменная незначима, её можно исключить из модели</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Боровков Дмитрий Евгеньевич:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+незначима т. К. &gt;0.05</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>Y</t>
   </si>
@@ -69,13 +600,121 @@
   </si>
   <si>
     <t>Построить статистическую зависимость стоимости квартиры от трех факторов. Оценить адекватность полученной модели, например, используя критерий Фишера.</t>
+  </si>
+  <si>
+    <t>ВЫВОД ИТОГОВ</t>
+  </si>
+  <si>
+    <t>Регрессионная статистика</t>
+  </si>
+  <si>
+    <t>Множественный R</t>
+  </si>
+  <si>
+    <t>R-квадрат</t>
+  </si>
+  <si>
+    <t>Нормированный R-квадрат</t>
+  </si>
+  <si>
+    <t>Стандартная ошибка</t>
+  </si>
+  <si>
+    <t>Наблюдения</t>
+  </si>
+  <si>
+    <t>Дисперсионный анализ</t>
+  </si>
+  <si>
+    <t>Регрессия</t>
+  </si>
+  <si>
+    <t>Остаток</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Y-пересечение</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Значимость F</t>
+  </si>
+  <si>
+    <t>Коэффициенты</t>
+  </si>
+  <si>
+    <t>t-статистика</t>
+  </si>
+  <si>
+    <t>P-Значение</t>
+  </si>
+  <si>
+    <t>Нижние 95%</t>
+  </si>
+  <si>
+    <t>Верхние 95%</t>
+  </si>
+  <si>
+    <t>Нижние 95,0%</t>
+  </si>
+  <si>
+    <t>Верхние 95,0%</t>
+  </si>
+  <si>
+    <t>Переменная X 1</t>
+  </si>
+  <si>
+    <t>Переменная X 2</t>
+  </si>
+  <si>
+    <t>Переменная X 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - коэффициент детерминации (зависимость между параметрами)</t>
+  </si>
+  <si>
+    <t>показывает каким будет у, если все х будут =0, то есть на значение у влияет и другие параметры, которых нет у нас</t>
+  </si>
+  <si>
+    <t>Столбец 1</t>
+  </si>
+  <si>
+    <t>Столбец 2</t>
+  </si>
+  <si>
+    <t>Столбец 3</t>
+  </si>
+  <si>
+    <t>Столбец 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -уравнение регрессии</t>
+  </si>
+  <si>
+    <t>Y'=2,26*X1-4,31*X2+0,17*X3-240,11</t>
+  </si>
+  <si>
+    <t>Y'=0,51*X1+0,24*X2+1,18*X3+18,43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,16 +748,60 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -126,11 +809,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -143,6 +846,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -158,6 +872,713 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Задание 1 графики'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>276</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Задание 1 графики'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>803</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="47102592"/>
+        <c:axId val="47085056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="47102592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47085056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="47085056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47102592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Задание 1 графики'!$C$20:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>35.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Задание 1 графики'!$A$20:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43415424"/>
+        <c:axId val="43413888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="43415424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43413888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="43413888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43415424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Задание 1 графики'!$D$38:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2733</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3254</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3266</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3323</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3422</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3790</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5173</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Задание 1 графики'!$A$38:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>691</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="43661568"/>
+        <c:axId val="39181312"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="43661568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="39181312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39181312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43661568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -203,7 +1624,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,7 +1659,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,6 +1880,15 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1119,25 +2549,2009 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>704</v>
+      </c>
+      <c r="B3">
+        <v>265</v>
+      </c>
+      <c r="C3">
+        <v>45.1</v>
+      </c>
+      <c r="D3">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>293</v>
+      </c>
+      <c r="B4">
+        <v>193</v>
+      </c>
+      <c r="C4">
+        <v>35.1</v>
+      </c>
+      <c r="D4">
+        <v>1956</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>346</v>
+      </c>
+      <c r="B5">
+        <v>229</v>
+      </c>
+      <c r="C5">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D5">
+        <v>2733</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.9475821443675706</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>420</v>
+      </c>
+      <c r="B6">
+        <v>193</v>
+      </c>
+      <c r="C6">
+        <v>60.2</v>
+      </c>
+      <c r="D6">
+        <v>3254</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.89791192032424338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>691</v>
+      </c>
+      <c r="B7">
+        <v>225</v>
+      </c>
+      <c r="C7">
+        <v>59</v>
+      </c>
+      <c r="D7">
+        <v>3323</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.87238990040530418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>679</v>
+      </c>
+      <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>63.4</v>
+      </c>
+      <c r="D8">
+        <v>3179</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6">
+        <v>79.243276058772636</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>457</v>
+      </c>
+      <c r="B9">
+        <v>201</v>
+      </c>
+      <c r="C9">
+        <v>58.1</v>
+      </c>
+      <c r="D9">
+        <v>3073</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>503</v>
+      </c>
+      <c r="B10">
+        <v>208</v>
+      </c>
+      <c r="C10">
+        <v>51.8</v>
+      </c>
+      <c r="D10">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>314</v>
+      </c>
+      <c r="B11">
+        <v>170</v>
+      </c>
+      <c r="C11">
+        <v>73.2</v>
+      </c>
+      <c r="D11">
+        <v>2669</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>803</v>
+      </c>
+      <c r="B12">
+        <v>276</v>
+      </c>
+      <c r="C12">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>4235</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>691</v>
+      </c>
+      <c r="B13">
+        <v>188</v>
+      </c>
+      <c r="C13">
+        <v>42.5</v>
+      </c>
+      <c r="D13">
+        <v>3790</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>662772.97589367779</v>
+      </c>
+      <c r="I13" s="6">
+        <v>220924.32529789259</v>
+      </c>
+      <c r="J13" s="6">
+        <v>35.181851717697683</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3.1711058640709671E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>775</v>
+      </c>
+      <c r="B14">
+        <v>232</v>
+      </c>
+      <c r="C14">
+        <v>50.5</v>
+      </c>
+      <c r="D14">
+        <v>3658</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6">
+        <v>75353.961606322177</v>
+      </c>
+      <c r="I14" s="6">
+        <v>6279.4968005268483</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>584</v>
+      </c>
+      <c r="B15">
+        <v>173</v>
+      </c>
+      <c r="C15">
+        <v>48.6</v>
+      </c>
+      <c r="D15">
+        <v>3801</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7">
+        <v>15</v>
+      </c>
+      <c r="H15" s="7">
+        <v>738126.9375</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>504</v>
+      </c>
+      <c r="B16">
+        <v>183</v>
+      </c>
+      <c r="C16">
+        <v>51.9</v>
+      </c>
+      <c r="D16">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>777</v>
+      </c>
+      <c r="B17">
+        <v>236</v>
+      </c>
+      <c r="C17">
+        <v>58.9</v>
+      </c>
+      <c r="D17">
+        <v>5173</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1138</v>
+      </c>
+      <c r="B18">
+        <v>265</v>
+      </c>
+      <c r="C18">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D18">
+        <v>5526</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="10">
+        <v>-240.11290495538509</v>
+      </c>
+      <c r="H18" s="6">
+        <v>176.89761838501857</v>
+      </c>
+      <c r="I18" s="6">
+        <v>-1.3573552156749682</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.19964834561710734</v>
+      </c>
+      <c r="K18" s="6">
+        <v>-625.53970543024093</v>
+      </c>
+      <c r="L18" s="6">
+        <v>145.31389551947075</v>
+      </c>
+      <c r="M18" s="6">
+        <v>-625.53970543024093</v>
+      </c>
+      <c r="N18" s="6">
+        <v>145.31389551947075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="6">
+        <v>2.2609779109521217</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.680029930583955</v>
+      </c>
+      <c r="I19" s="6">
+        <v>3.3248211722248397</v>
+      </c>
+      <c r="J19" s="6">
+        <v>6.0558833153332003E-3</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.77931997363808581</v>
+      </c>
+      <c r="L19" s="6">
+        <v>3.7426358482661577</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.77931997363808581</v>
+      </c>
+      <c r="N19" s="6">
+        <v>3.7426358482661577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="6">
+        <v>-4.3073031066214682</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.9822834220679615</v>
+      </c>
+      <c r="I20" s="6">
+        <v>-2.1728997269865653</v>
+      </c>
+      <c r="J20" s="6">
+        <v>5.0532034942522439E-2</v>
+      </c>
+      <c r="K20" s="6">
+        <v>-8.6263276586598003</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1.1721445416863929E-2</v>
+      </c>
+      <c r="M20" s="6">
+        <v>-8.6263276586598003</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1.1721445416863929E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.16609149343908786</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2.7050118199928218E-2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>6.1401392855846604</v>
+      </c>
+      <c r="J21" s="7">
+        <v>5.0207087415548604E-5</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.10715434886106925</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.22502863801710646</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.10715434886106925</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.22502863801710646</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="11"/>
+      <c r="G23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>314</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
+      </c>
+      <c r="C2">
+        <v>73.2</v>
+      </c>
+      <c r="D2">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>584</v>
+      </c>
+      <c r="B3">
+        <v>173</v>
+      </c>
+      <c r="C3">
+        <v>48.6</v>
+      </c>
+      <c r="D3">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>504</v>
+      </c>
+      <c r="B4">
+        <v>183</v>
+      </c>
+      <c r="C4">
+        <v>51.9</v>
+      </c>
+      <c r="D4">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>691</v>
+      </c>
+      <c r="B5">
+        <v>188</v>
+      </c>
+      <c r="C5">
+        <v>42.5</v>
+      </c>
+      <c r="D5">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>293</v>
+      </c>
+      <c r="B6">
+        <v>193</v>
+      </c>
+      <c r="C6">
+        <v>35.1</v>
+      </c>
+      <c r="D6">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>420</v>
+      </c>
+      <c r="B7">
+        <v>193</v>
+      </c>
+      <c r="C7">
+        <v>60.2</v>
+      </c>
+      <c r="D7">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>457</v>
+      </c>
+      <c r="B8">
+        <v>201</v>
+      </c>
+      <c r="C8">
+        <v>58.1</v>
+      </c>
+      <c r="D8">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>503</v>
+      </c>
+      <c r="B9">
+        <v>208</v>
+      </c>
+      <c r="C9">
+        <v>51.8</v>
+      </c>
+      <c r="D9">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>691</v>
+      </c>
+      <c r="B10">
+        <v>225</v>
+      </c>
+      <c r="C10">
+        <v>59</v>
+      </c>
+      <c r="D10">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>346</v>
+      </c>
+      <c r="B11">
+        <v>229</v>
+      </c>
+      <c r="C11">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D11">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>775</v>
+      </c>
+      <c r="B12">
+        <v>232</v>
+      </c>
+      <c r="C12">
+        <v>50.5</v>
+      </c>
+      <c r="D12">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>777</v>
+      </c>
+      <c r="B13">
+        <v>236</v>
+      </c>
+      <c r="C13">
+        <v>58.9</v>
+      </c>
+      <c r="D13">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>679</v>
+      </c>
+      <c r="B14">
+        <v>255</v>
+      </c>
+      <c r="C14">
+        <v>63.4</v>
+      </c>
+      <c r="D14">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>704</v>
+      </c>
+      <c r="B15">
+        <v>265</v>
+      </c>
+      <c r="C15">
+        <v>45.1</v>
+      </c>
+      <c r="D15">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1138</v>
+      </c>
+      <c r="B16">
+        <v>265</v>
+      </c>
+      <c r="C16">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D16">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>803</v>
+      </c>
+      <c r="B17">
+        <v>276</v>
+      </c>
+      <c r="C17">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>293</v>
+      </c>
+      <c r="B20">
+        <v>193</v>
+      </c>
+      <c r="C20">
+        <v>35.1</v>
+      </c>
+      <c r="D20">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1138</v>
+      </c>
+      <c r="B21">
+        <v>265</v>
+      </c>
+      <c r="C21">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D21">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>691</v>
+      </c>
+      <c r="B22">
+        <v>188</v>
+      </c>
+      <c r="C22">
+        <v>42.5</v>
+      </c>
+      <c r="D22">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>704</v>
+      </c>
+      <c r="B23">
+        <v>265</v>
+      </c>
+      <c r="C23">
+        <v>45.1</v>
+      </c>
+      <c r="D23">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>584</v>
+      </c>
+      <c r="B24">
+        <v>173</v>
+      </c>
+      <c r="C24">
+        <v>48.6</v>
+      </c>
+      <c r="D24">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>775</v>
+      </c>
+      <c r="B25">
+        <v>232</v>
+      </c>
+      <c r="C25">
+        <v>50.5</v>
+      </c>
+      <c r="D25">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>503</v>
+      </c>
+      <c r="B26">
+        <v>208</v>
+      </c>
+      <c r="C26">
+        <v>51.8</v>
+      </c>
+      <c r="D26">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>504</v>
+      </c>
+      <c r="B27">
+        <v>183</v>
+      </c>
+      <c r="C27">
+        <v>51.9</v>
+      </c>
+      <c r="D27">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>457</v>
+      </c>
+      <c r="B28">
+        <v>201</v>
+      </c>
+      <c r="C28">
+        <v>58.1</v>
+      </c>
+      <c r="D28">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>777</v>
+      </c>
+      <c r="B29">
+        <v>236</v>
+      </c>
+      <c r="C29">
+        <v>58.9</v>
+      </c>
+      <c r="D29">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>691</v>
+      </c>
+      <c r="B30">
+        <v>225</v>
+      </c>
+      <c r="C30">
+        <v>59</v>
+      </c>
+      <c r="D30">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>803</v>
+      </c>
+      <c r="B31">
+        <v>276</v>
+      </c>
+      <c r="C31">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>420</v>
+      </c>
+      <c r="B32">
+        <v>193</v>
+      </c>
+      <c r="C32">
+        <v>60.2</v>
+      </c>
+      <c r="D32">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>679</v>
+      </c>
+      <c r="B33">
+        <v>255</v>
+      </c>
+      <c r="C33">
+        <v>63.4</v>
+      </c>
+      <c r="D33">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>346</v>
+      </c>
+      <c r="B34">
+        <v>229</v>
+      </c>
+      <c r="C34">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D34">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>314</v>
+      </c>
+      <c r="B35">
+        <v>170</v>
+      </c>
+      <c r="C35">
+        <v>73.2</v>
+      </c>
+      <c r="D35">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>293</v>
+      </c>
+      <c r="B38">
+        <v>193</v>
+      </c>
+      <c r="C38">
+        <v>35.1</v>
+      </c>
+      <c r="D38">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>314</v>
+      </c>
+      <c r="B39">
+        <v>170</v>
+      </c>
+      <c r="C39">
+        <v>73.2</v>
+      </c>
+      <c r="D39">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>346</v>
+      </c>
+      <c r="B40">
+        <v>229</v>
+      </c>
+      <c r="C40">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="D40">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>457</v>
+      </c>
+      <c r="B41">
+        <v>201</v>
+      </c>
+      <c r="C41">
+        <v>58.1</v>
+      </c>
+      <c r="D41">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>679</v>
+      </c>
+      <c r="B42">
+        <v>255</v>
+      </c>
+      <c r="C42">
+        <v>63.4</v>
+      </c>
+      <c r="D42">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>420</v>
+      </c>
+      <c r="B43">
+        <v>193</v>
+      </c>
+      <c r="C43">
+        <v>60.2</v>
+      </c>
+      <c r="D43">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>503</v>
+      </c>
+      <c r="B44">
+        <v>208</v>
+      </c>
+      <c r="C44">
+        <v>51.8</v>
+      </c>
+      <c r="D44">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>504</v>
+      </c>
+      <c r="B45">
+        <v>183</v>
+      </c>
+      <c r="C45">
+        <v>51.9</v>
+      </c>
+      <c r="D45">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>691</v>
+      </c>
+      <c r="B46">
+        <v>225</v>
+      </c>
+      <c r="C46">
+        <v>59</v>
+      </c>
+      <c r="D46">
+        <v>3323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>704</v>
+      </c>
+      <c r="B47">
+        <v>265</v>
+      </c>
+      <c r="C47">
+        <v>45.1</v>
+      </c>
+      <c r="D47">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>775</v>
+      </c>
+      <c r="B48">
+        <v>232</v>
+      </c>
+      <c r="C48">
+        <v>50.5</v>
+      </c>
+      <c r="D48">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>691</v>
+      </c>
+      <c r="B49">
+        <v>188</v>
+      </c>
+      <c r="C49">
+        <v>42.5</v>
+      </c>
+      <c r="D49">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>584</v>
+      </c>
+      <c r="B50">
+        <v>173</v>
+      </c>
+      <c r="C50">
+        <v>48.6</v>
+      </c>
+      <c r="D50">
+        <v>3801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>803</v>
+      </c>
+      <c r="B51">
+        <v>276</v>
+      </c>
+      <c r="C51">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>777</v>
+      </c>
+      <c r="B52">
+        <v>236</v>
+      </c>
+      <c r="C52">
+        <v>58.9</v>
+      </c>
+      <c r="D52">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1138</v>
+      </c>
+      <c r="B53">
+        <v>265</v>
+      </c>
+      <c r="C53">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D53">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="6">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0.68651257533427146</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="6">
+        <v>-0.35538830755029033</v>
+      </c>
+      <c r="C59" s="6">
+        <v>-4.4168411921891117E-2</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="7">
+        <v>0.87812921023739987</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0.48950896598503341</v>
+      </c>
+      <c r="D60" s="7">
+        <v>-0.20288948072966734</v>
+      </c>
+      <c r="E60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A38:D54">
+    <sortCondition ref="D38"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>84</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>69.7</v>
+      </c>
+      <c r="B4">
+        <v>42</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>80.3</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>19.8</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.91183554100060127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>96.4</v>
+      </c>
+      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.83144405383185915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>24.8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.80845915208165808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>27.3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6">
+        <v>11.950396441960214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>86.8</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>114.8</v>
+      </c>
+      <c r="B10">
+        <v>74</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>114.3</v>
+      </c>
+      <c r="B11">
+        <v>74.7</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>38.6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>116</v>
+      </c>
+      <c r="B13">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>15498.021547359665</v>
+      </c>
+      <c r="I13" s="6">
+        <v>5166.0071824532215</v>
+      </c>
+      <c r="J13" s="6">
+        <v>36.173487399161367</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1.1098128430438684E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <v>78.8</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>42.7</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3141.8634526403375</v>
+      </c>
+      <c r="I14" s="6">
+        <v>142.81197512001535</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="7">
+        <v>25</v>
+      </c>
+      <c r="H15" s="7">
+        <v>18639.885000000002</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>176</v>
+      </c>
+      <c r="B16">
+        <v>129</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>92</v>
+      </c>
+      <c r="B18">
+        <v>72.8</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>23.8</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="6">
+        <v>18.422266393821261</v>
+      </c>
+      <c r="H18" s="6">
+        <v>10.480036234178002</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1.7578437690646216</v>
+      </c>
+      <c r="J18" s="6">
+        <v>9.2681377117258879E-2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>-3.3119985028988239</v>
+      </c>
+      <c r="L18" s="6">
+        <v>40.156531290541345</v>
+      </c>
+      <c r="M18" s="6">
+        <v>-3.3119985028988239</v>
+      </c>
+      <c r="N18" s="6">
+        <v>40.156531290541345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>176</v>
+      </c>
+      <c r="B19">
+        <v>110</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>68</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.50810763010935345</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.18097369657101167</v>
+      </c>
+      <c r="I19" s="6">
+        <v>2.8076324887908712</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1.0256185394217819E-2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.13279115479169717</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.88342410542700978</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.13279115479169717</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.88342410542700978</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>74</v>
+      </c>
+      <c r="B20">
+        <v>49</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.23662309892822128</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.42566574545606961</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.55588945423526381</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.58389625994199634</v>
+      </c>
+      <c r="K20" s="6">
+        <v>-0.64615362650241193</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1.1193998243588545</v>
+      </c>
+      <c r="M20" s="6">
+        <v>-0.64615362650241193</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1.1193998243588545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>73.7</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>48.8</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1.1793336341728262</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.24450881780279346</v>
+      </c>
+      <c r="I21" s="7">
+        <v>4.8232764968174191</v>
+      </c>
+      <c r="J21" s="7">
+        <v>8.089253744929382E-5</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.67225338206656049</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1.6864138862790918</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.67225338206656049</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1.6864138862790918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>88</v>
+      </c>
+      <c r="B22">
+        <v>61.7</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>48.8</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>74.7</v>
+      </c>
+      <c r="B24">
+        <v>80.8</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>118</v>
+      </c>
+      <c r="B25">
+        <v>76</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>62</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>110</v>
+      </c>
+      <c r="B27">
+        <v>79.8</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="L28:L53">
+    <sortCondition ref="L28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>